--- a/Excelフォーマット.xlsx
+++ b/Excelフォーマット.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orii\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orii\Desktop\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -324,26 +324,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -470,6 +450,26 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -486,16 +486,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="C4:G24" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="C4:G24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="C4:G24"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="#" dataDxfId="6">
+    <tableColumn id="1" name="#" dataDxfId="4">
       <calculatedColumnFormula>ROW()-$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="大項目" dataDxfId="5"/>
-    <tableColumn id="3" name="中項目" dataDxfId="4"/>
-    <tableColumn id="4" name="小項目" dataDxfId="3"/>
-    <tableColumn id="5" name="備考" dataDxfId="2"/>
+    <tableColumn id="2" name="大項目" dataDxfId="3"/>
+    <tableColumn id="3" name="中項目" dataDxfId="2"/>
+    <tableColumn id="4" name="小項目" dataDxfId="1"/>
+    <tableColumn id="5" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,7 +766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -806,14 +808,16 @@
         <f>ROW()-$B$4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C25" si="0">ROW()-$B$4</f>
+        <f t="shared" ref="C6:C24" si="0">ROW()-$B$4</f>
         <v>2</v>
       </c>
       <c r="D6" s="2"/>

--- a/Excelフォーマット.xlsx
+++ b/Excelフォーマット.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orii\Desktop\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\LocalRepository01\LocalRepository01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -820,7 +820,9 @@
         <f t="shared" ref="C6:C24" si="0">ROW()-$B$4</f>
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
